--- a/src/main/java/com/cdp/InputFiles/Suite_Web.xlsx
+++ b/src/main/java/com/cdp/InputFiles/Suite_Web.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="75" yWindow="-15" windowWidth="20730" windowHeight="11760" tabRatio="626"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Suite" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -507,7 +507,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>

--- a/src/main/java/com/cdp/InputFiles/Suite_Web.xlsx
+++ b/src/main/java/com/cdp/InputFiles/Suite_Web.xlsx
@@ -28,10 +28,10 @@
     <t>CDPLogin</t>
   </si>
   <si>
-    <t>CDPDash</t>
+    <t>N</t>
   </si>
   <si>
-    <t>N</t>
+    <t>API</t>
   </si>
 </sst>
 </file>
@@ -89,13 +89,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -513,7 +516,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -536,15 +539,15 @@
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/cdp/InputFiles/Suite_Web.xlsx
+++ b/src/main/java/com/cdp/InputFiles/Suite_Web.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="-15" windowWidth="20730" windowHeight="11760" tabRatio="626"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15510" windowHeight="2235" tabRatio="626"/>
   </bookViews>
   <sheets>
     <sheet name="Suite" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -516,7 +517,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>

--- a/src/main/java/com/cdp/InputFiles/Suite_Web.xlsx
+++ b/src/main/java/com/cdp/InputFiles/Suite_Web.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="14835" windowHeight="3975" tabRatio="626"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="15210" windowHeight="6375" tabRatio="626"/>
   </bookViews>
   <sheets>
     <sheet name="Suite" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>TSID</t>
   </si>
@@ -26,10 +25,16 @@
     <t>Y</t>
   </si>
   <si>
-    <t>CustomerPortal</t>
-  </si>
-  <si>
     <t>gmail</t>
+  </si>
+  <si>
+    <t>CDPLogin</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>CDPDASHBOARD</t>
   </si>
 </sst>
 </file>
@@ -87,15 +92,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -511,10 +513,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -534,17 +536,25 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
     </row>

--- a/src/main/java/com/cdp/InputFiles/Suite_Web.xlsx
+++ b/src/main/java/com/cdp/InputFiles/Suite_Web.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="15210" windowHeight="6375" tabRatio="626"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="15210" windowHeight="4560" tabRatio="626"/>
   </bookViews>
   <sheets>
     <sheet name="Suite" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>TSID</t>
   </si>
@@ -35,6 +35,15 @@
   </si>
   <si>
     <t>CDPDASHBOARD</t>
+  </si>
+  <si>
+    <t>DEFAULTDASHBOARD</t>
+  </si>
+  <si>
+    <t>ADDWIDGETS</t>
+  </si>
+  <si>
+    <t>REMOVEWIDGETS</t>
   </si>
 </sst>
 </file>
@@ -513,10 +522,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -556,6 +565,30 @@
       </c>
       <c r="B4" s="5" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
